--- a/Ing_economica/labora1/LAB1ALUM.xlsx
+++ b/Ing_economica/labora1/LAB1ALUM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cris Pat\Desktop\U\Semestre_10\Ing_economica\labora1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D111EC08-962D-4E21-B2B2-EFF9EF93EFC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B95F8FB-5769-4A9A-B7BE-B00B77EF3DFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{21C52F9F-9D1F-43EA-81EE-A6D099088763}"/>
   </bookViews>
@@ -168,7 +168,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -180,6 +180,8 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -702,13 +704,13 @@
                 <c:formatCode>_-[$$-540A]* #,##0.00_ ;_-[$$-540A]* \-#,##0.00\ ;_-[$$-540A]* "-"??_ ;_-@_ </c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="1">
-                  <c:v>193045.87001526603</c:v>
+                  <c:v>76263.689332235124</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>193045.87001526603</c:v>
+                  <c:v>76263.689332235124</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>193045.87001526603</c:v>
+                  <c:v>76263.689332235124</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6446,15 +6448,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9CC97C2-DA85-47AE-8AB8-C16D5EBCA010}">
   <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="4" max="4" width="16.88671875" customWidth="1"/>
     <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
@@ -6586,7 +6588,7 @@
       </c>
       <c r="E16" s="1">
         <f>B19</f>
-        <v>193045.87001526603</v>
+        <v>76263.689332235124</v>
       </c>
       <c r="G16" s="1"/>
     </row>
@@ -6602,7 +6604,7 @@
       </c>
       <c r="E17" s="1">
         <f>E16</f>
-        <v>193045.87001526603</v>
+        <v>76263.689332235124</v>
       </c>
       <c r="G17" s="1"/>
     </row>
@@ -6618,7 +6620,7 @@
       </c>
       <c r="E18" s="1">
         <f>E17</f>
-        <v>193045.87001526603</v>
+        <v>76263.689332235124</v>
       </c>
       <c r="F18" s="1">
         <f>B16</f>
@@ -6631,9 +6633,13 @@
         <v>3</v>
       </c>
       <c r="B19" s="6">
-        <f>PV(B18,B17,,B16)</f>
-        <v>193045.87001526603</v>
-      </c>
+        <f>PMT(B18,B17,,B16)</f>
+        <v>76263.689332235124</v>
+      </c>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B20" s="9"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
@@ -6675,7 +6681,7 @@
       </c>
       <c r="E26" s="1">
         <f>B34</f>
-        <v>-191270.27487718512</v>
+        <v>191270.27487718512</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -6691,7 +6697,7 @@
       </c>
       <c r="E27" s="1">
         <f>E26</f>
-        <v>-191270.27487718512</v>
+        <v>191270.27487718512</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -6707,7 +6713,7 @@
       </c>
       <c r="E28" s="1">
         <f>E27</f>
-        <v>-191270.27487718512</v>
+        <v>191270.27487718512</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -6723,7 +6729,7 @@
       </c>
       <c r="E29" s="1">
         <f>E28</f>
-        <v>-191270.27487718512</v>
+        <v>191270.27487718512</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -6739,7 +6745,7 @@
       </c>
       <c r="E30" s="1">
         <f>E29</f>
-        <v>-191270.27487718512</v>
+        <v>191270.27487718512</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6756,8 +6762,8 @@
         <v>12</v>
       </c>
       <c r="B32" s="6">
-        <f>PMT(B24,A30,B31)</f>
-        <v>-191270.27487718512</v>
+        <f>-PMT(B24,A30,B31)</f>
+        <v>191270.27487718512</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -6775,7 +6781,7 @@
       </c>
       <c r="B34" s="6">
         <f>B32</f>
-        <v>-191270.27487718512</v>
+        <v>191270.27487718512</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -6943,9 +6949,12 @@
         <f>NPV($E$36,C40:C44)+C39</f>
         <v>-3255467.4721914348</v>
       </c>
-      <c r="D45" s="6"/>
+      <c r="D45" s="6">
+        <f>B45+C45</f>
+        <v>16401585.500554152</v>
+      </c>
       <c r="E45" s="6">
-        <f t="shared" ref="D45:E45" si="5">NPV($E$36,E40:E44)+E39</f>
+        <f t="shared" ref="E45" si="5">NPV($E$36,E40:E44)+E39</f>
         <v>16401585.500554154</v>
       </c>
     </row>
@@ -6961,14 +6970,20 @@
         <f t="shared" ref="C46:E46" si="6">PMT($E$36,$A$44,C45)</f>
         <v>815352.8410427284</v>
       </c>
-      <c r="D46" s="6"/>
+      <c r="D46" s="6">
+        <f>-PMT($E$36,$A$44,D45)</f>
+        <v>4107882.9537436264</v>
+      </c>
       <c r="E46" s="6">
-        <f t="shared" si="6"/>
-        <v>-4107882.9537436273</v>
+        <f>-PMT($E$36,$A$44,E45)</f>
+        <v>4107882.9537436273</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B47" s="6"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E48" s="10"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
